--- a/test_env/dashboard_creation/target.xlsx
+++ b/test_env/dashboard_creation/target.xlsx
@@ -950,10 +950,10 @@
         <v>2005</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1368084257926022</v>
+        <v>0.1378365833639389</v>
       </c>
       <c r="D39" t="n">
-        <v>498.6195426156061</v>
+        <v>502.3668224705316</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
@@ -968,10 +968,10 @@
         <v>2006</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1340722572767502</v>
+        <v>0.1350798516966601</v>
       </c>
       <c r="D40" t="n">
-        <v>491.140249476372</v>
+        <v>494.8313201334736</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
@@ -986,10 +986,10 @@
         <v>2007</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1313908121312151</v>
+        <v>0.1323782546627269</v>
       </c>
       <c r="D41" t="n">
-        <v>483.7731457342264</v>
+        <v>487.4088503314716</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
@@ -1004,10 +1004,10 @@
         <v>2008</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1287629958885908</v>
+        <v>0.1297306895694724</v>
       </c>
       <c r="D42" t="n">
-        <v>476.516548548213</v>
+        <v>480.0977175764995</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
@@ -1022,10 +1022,10 @@
         <v>2009</v>
       </c>
       <c r="C43" t="n">
-        <v>0.126187735970819</v>
+        <v>0.1271360757780829</v>
       </c>
       <c r="D43" t="n">
-        <v>469.3688003199899</v>
+        <v>472.896251812852</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
@@ -1040,10 +1040,10 @@
         <v>2010</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1236639812514026</v>
+        <v>0.1245933542625213</v>
       </c>
       <c r="D44" t="n">
-        <v>462.32826831519</v>
+        <v>465.8028080356592</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
@@ -1058,10 +1058,10 @@
         <v>2011</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1211907016263746</v>
+        <v>0.1221014871772709</v>
       </c>
       <c r="D45" t="n">
-        <v>455.3933442904621</v>
+        <v>458.8157659151243</v>
       </c>
       <c r="E45" t="n">
         <v>612.4667914625181</v>
@@ -1078,10 +1078,10 @@
         <v>2012</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1187668875938471</v>
+        <v>0.1196594574337254</v>
       </c>
       <c r="D46" t="n">
-        <v>448.5624441261052</v>
+        <v>451.9335294263974</v>
       </c>
       <c r="E46" t="n">
         <v>603.2797895905803</v>
@@ -1098,10 +1098,10 @@
         <v>2013</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1163915498419701</v>
+        <v>0.1172662682850509</v>
       </c>
       <c r="D47" t="n">
-        <v>441.8340074642136</v>
+        <v>445.1545264850014</v>
       </c>
       <c r="E47" t="n">
         <v>594.2305927467216</v>
@@ -1118,10 +1118,10 @@
         <v>2014</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1140637188451307</v>
+        <v>0.1149209429193499</v>
       </c>
       <c r="D48" t="n">
-        <v>435.2064973522504</v>
+        <v>438.4772085877264</v>
       </c>
       <c r="E48" t="n">
         <v>585.3171338555208</v>
@@ -1138,10 +1138,10 @@
         <v>2015</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1117824444682281</v>
+        <v>0.1126225240609629</v>
       </c>
       <c r="D49" t="n">
-        <v>428.6783998919666</v>
+        <v>431.9000504589105</v>
       </c>
       <c r="E49" t="n">
         <v>576.5373768476881</v>
@@ -1158,10 +1158,10 @@
         <v>2016</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1095467955788636</v>
+        <v>0.1103700735797437</v>
       </c>
       <c r="D50" t="n">
-        <v>422.2482238935871</v>
+        <v>425.4215497020268</v>
       </c>
       <c r="E50" t="n">
         <v>567.8893161949726</v>
@@ -1178,10 +1178,10 @@
         <v>2017</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1073558596672863</v>
+        <v>0.1081626721081488</v>
       </c>
       <c r="D51" t="n">
-        <v>415.9145005351833</v>
+        <v>419.0402264564965</v>
       </c>
       <c r="E51" t="n">
         <v>559.370976452048</v>
@@ -1198,10 +1198,10 @@
         <v>2018</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1052087424739405</v>
+        <v>0.1059994186659858</v>
       </c>
       <c r="D52" t="n">
-        <v>409.6757830271555</v>
+        <v>412.754623059649</v>
       </c>
       <c r="E52" t="n">
         <v>550.9804118052673</v>
@@ -1218,10 +1218,10 @@
         <v>2019</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1031045676244617</v>
+        <v>0.1038794302926661</v>
       </c>
       <c r="D53" t="n">
-        <v>403.5306462817482</v>
+        <v>406.5633037137543</v>
       </c>
       <c r="E53" t="n">
         <v>542.7157056281883</v>
@@ -1238,10 +1238,10 @@
         <v>2020</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1010424762719725</v>
+        <v>0.1018018416868127</v>
       </c>
       <c r="D54" t="n">
-        <v>397.477686587522</v>
+        <v>400.464854158048</v>
       </c>
       <c r="E54" t="n">
         <v>534.5749700437655</v>
@@ -1258,10 +1258,10 @@
         <v>2021</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09902162674653305</v>
+        <v>0.09976580485307648</v>
       </c>
       <c r="D55" t="n">
-        <v>391.5155212887091</v>
+        <v>394.4578813456772</v>
       </c>
       <c r="E55" t="n">
         <v>526.556345493109</v>
@@ -1278,10 +1278,10 @@
         <v>2022</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09704119421160239</v>
+        <v>0.09777048875601496</v>
       </c>
       <c r="D56" t="n">
-        <v>385.6427884693785</v>
+        <v>388.541013125492</v>
       </c>
       <c r="E56" t="n">
         <v>518.6580003107123</v>
@@ -1298,10 +1298,10 @@
         <v>2023</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09510037032737033</v>
+        <v>0.09581507898089466</v>
       </c>
       <c r="D57" t="n">
-        <v>379.8581466423378</v>
+        <v>382.7128979286097</v>
       </c>
       <c r="E57" t="n">
         <v>510.8781303060517</v>
@@ -1318,10 +1318,10 @@
         <v>2024</v>
       </c>
       <c r="C58" t="n">
-        <v>0.09319836292082292</v>
+        <v>0.09389877740127676</v>
       </c>
       <c r="D58" t="n">
-        <v>374.1602744427028</v>
+        <v>376.9722044596805</v>
       </c>
       <c r="E58" t="n">
         <v>503.2149583514609</v>
@@ -1336,10 +1336,10 @@
         <v>2025</v>
       </c>
       <c r="C59" t="n">
-        <v>0.09133439566240646</v>
+        <v>0.09202080185325122</v>
       </c>
       <c r="D59" t="n">
-        <v>368.5478703260622</v>
+        <v>371.3176213927853</v>
       </c>
       <c r="E59" t="n">
         <v>495.6667339761889</v>
@@ -1354,10 +1354,10 @@
         <v>2026</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08950770774915834</v>
+        <v>0.09018038581618619</v>
       </c>
       <c r="D60" t="n">
-        <v>363.0196522711713</v>
+        <v>365.7478570718935</v>
       </c>
       <c r="E60" t="n">
         <v>488.2317329665461</v>
@@ -1372,10 +1372,10 @@
         <v>2027</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08771755359417517</v>
+        <v>0.08837677809986247</v>
       </c>
       <c r="D61" t="n">
-        <v>357.5743574871037</v>
+        <v>360.2616392158151</v>
       </c>
       <c r="E61" t="n">
         <v>480.9082569720479</v>
@@ -1390,10 +1390,10 @@
         <v>2028</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08596320252229167</v>
+        <v>0.08660924253786523</v>
       </c>
       <c r="D62" t="n">
-        <v>352.2107421247972</v>
+        <v>354.8577146275779</v>
       </c>
       <c r="E62" t="n">
         <v>473.6946331174672</v>
@@ -1408,10 +1408,10 @@
         <v>2029</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08424393847184584</v>
+        <v>0.08487705768710793</v>
       </c>
       <c r="D63" t="n">
-        <v>346.9275809929252</v>
+        <v>349.5348489081642</v>
       </c>
       <c r="E63" t="n">
         <v>466.5892136207052</v>
@@ -1426,10 +1426,10 @@
         <v>2030</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08255905970240891</v>
+        <v>0.08317951653336576</v>
       </c>
       <c r="D64" t="n">
-        <v>341.7236672780313</v>
+        <v>344.2918261745418</v>
       </c>
       <c r="E64" t="n">
         <v>459.5903754163946</v>
@@ -1444,10 +1444,10 @@
         <v>2031</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08090787850836073</v>
+        <v>0.08151592620269844</v>
       </c>
       <c r="D65" t="n">
-        <v>336.5978122688608</v>
+        <v>339.1274487819236</v>
       </c>
       <c r="E65" t="n">
         <v>452.6965197851487</v>
@@ -1462,10 +1462,10 @@
         <v>2032</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07928972093819352</v>
+        <v>0.07988560767864447</v>
       </c>
       <c r="D66" t="n">
-        <v>331.5488450848279</v>
+        <v>334.0405370501948</v>
       </c>
       <c r="E66" t="n">
         <v>445.9060719883714</v>
@@ -1480,10 +1480,10 @@
         <v>2033</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07770392651942964</v>
+        <v>0.07828789552507158</v>
       </c>
       <c r="D67" t="n">
-        <v>326.5756124085555</v>
+        <v>329.0299289944418</v>
       </c>
       <c r="E67" t="n">
         <v>439.2174809085458</v>
@@ -1498,10 +1498,10 @@
         <v>2034</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07614984798904105</v>
+        <v>0.07672213761457015</v>
       </c>
       <c r="D68" t="n">
-        <v>321.6769782224271</v>
+        <v>324.0944800595252</v>
       </c>
       <c r="E68" t="n">
         <v>432.6292186949177</v>
@@ -1516,10 +1516,10 @@
         <v>2035</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07462685102926023</v>
+        <v>0.07518769486227875</v>
       </c>
       <c r="D69" t="n">
-        <v>316.8518235490907</v>
+        <v>319.2330628586323</v>
       </c>
       <c r="E69" t="n">
         <v>426.1397804144939</v>
@@ -1534,10 +1534,10 @@
         <v>2036</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07313431400867502</v>
+        <v>0.07368394096503317</v>
       </c>
       <c r="D70" t="n">
-        <v>312.0990461958544</v>
+        <v>314.4445669157528</v>
       </c>
       <c r="E70" t="n">
         <v>419.7476837082765</v>
@@ -1552,10 +1552,10 @@
         <v>2037</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07167162772850152</v>
+        <v>0.07221026214573251</v>
       </c>
       <c r="D71" t="n">
-        <v>307.4175605029165</v>
+        <v>309.7278984120165</v>
       </c>
       <c r="E71" t="n">
         <v>413.4514684526524</v>
@@ -1570,10 +1570,10 @@
         <v>2038</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0702381951739315</v>
+        <v>0.07076605690281786</v>
       </c>
       <c r="D72" t="n">
-        <v>302.8062970953728</v>
+        <v>305.0819799358363</v>
       </c>
       <c r="E72" t="n">
         <v>407.2496964258626</v>
@@ -1588,10 +1588,10 @@
         <v>2039</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06883343127045287</v>
+        <v>0.0693507357647615</v>
       </c>
       <c r="D73" t="n">
-        <v>298.2642026389422</v>
+        <v>300.5057502367987</v>
       </c>
       <c r="E73" t="n">
         <v>401.1409509794746</v>
@@ -1606,10 +1606,10 @@
         <v>2040</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0674567626450438</v>
+        <v>0.06796372104946627</v>
       </c>
       <c r="D74" t="n">
-        <v>293.7902395993581</v>
+        <v>295.9981639832467</v>
       </c>
       <c r="E74" t="n">
         <v>395.1238367147824</v>
@@ -1624,10 +1624,10 @@
         <v>2041</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06610762739214293</v>
+        <v>0.06660444662847693</v>
       </c>
       <c r="D75" t="n">
-        <v>289.3833860053677</v>
+        <v>291.558191523498</v>
       </c>
       <c r="E75" t="n">
         <v>389.1969791640607</v>
@@ -1642,10 +1642,10 @@
         <v>2042</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06478547484430007</v>
+        <v>0.06527235769590739</v>
       </c>
       <c r="D76" t="n">
-        <v>285.0426352152872</v>
+        <v>287.1848186506456</v>
       </c>
       <c r="E76" t="n">
         <v>383.3590244765998</v>
@@ -1660,10 +1660,10 @@
         <v>2043</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06348976534741406</v>
+        <v>0.06396691054198925</v>
       </c>
       <c r="D77" t="n">
-        <v>280.7669956870578</v>
+        <v>282.8770463708859</v>
       </c>
       <c r="E77" t="n">
         <v>377.6086391094508</v>
@@ -1678,10 +1678,10 @@
         <v>2044</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06221997004046578</v>
+        <v>0.06268757233114947</v>
       </c>
       <c r="D78" t="n">
-        <v>276.555490751752</v>
+        <v>278.6338906753226</v>
       </c>
       <c r="E78" t="n">
         <v>371.944509522809</v>
@@ -1696,10 +1696,10 @@
         <v>2045</v>
       </c>
       <c r="C79" t="n">
-        <v>0.06097557063965646</v>
+        <v>0.06143382088452647</v>
       </c>
       <c r="D79" t="n">
-        <v>272.4071583904757</v>
+        <v>274.4543823151927</v>
       </c>
       <c r="E79" t="n">
         <v>366.3653418799669</v>
@@ -1714,10 +1714,10 @@
         <v>2046</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05975605922686333</v>
+        <v>0.06020514446683594</v>
       </c>
       <c r="D80" t="n">
-        <v>268.3210510146186</v>
+        <v>270.3375665804649</v>
       </c>
       <c r="E80" t="n">
         <v>360.8698617517674</v>
@@ -1732,10 +1732,10 @@
         <v>2047</v>
       </c>
       <c r="C81" t="n">
-        <v>0.05856093804232606</v>
+        <v>0.05900104157749922</v>
       </c>
       <c r="D81" t="n">
-        <v>264.2962352493993</v>
+        <v>266.2825030817579</v>
       </c>
       <c r="E81" t="n">
         <v>355.4568138254909</v>
@@ -1750,10 +1750,10 @@
         <v>2048</v>
       </c>
       <c r="C82" t="n">
-        <v>0.05738971928147955</v>
+        <v>0.05782102074594924</v>
       </c>
       <c r="D82" t="n">
-        <v>260.3317917206583</v>
+        <v>262.2882655355315</v>
       </c>
       <c r="E82" t="n">
         <v>350.1249616181085</v>
@@ -1768,10 +1768,10 @@
         <v>2049</v>
       </c>
       <c r="C83" t="n">
-        <v>0.05624192489584996</v>
+        <v>0.05666460033103025</v>
       </c>
       <c r="D83" t="n">
-        <v>256.4268148448484</v>
+        <v>258.3539415524986</v>
       </c>
       <c r="E83" t="n">
         <v>344.8730871938369</v>
@@ -1786,10 +1786,10 @@
         <v>2050</v>
       </c>
       <c r="C84" t="n">
-        <v>0.05511708639793295</v>
+        <v>0.05553130832440964</v>
       </c>
       <c r="D84" t="n">
-        <v>252.5804126221757</v>
+        <v>254.4786324292111</v>
       </c>
       <c r="E84" t="n">
         <v>339.6999908859293</v>

--- a/test_env/dashboard_creation/target.xlsx
+++ b/test_env/dashboard_creation/target.xlsx
@@ -1084,7 +1084,7 @@
         <v>451.9335294263974</v>
       </c>
       <c r="E46" t="n">
-        <v>603.2797895905803</v>
+        <v>591.03045376133</v>
       </c>
       <c r="F46" t="n">
         <v>5392.566428801954</v>
@@ -1104,7 +1104,7 @@
         <v>445.1545264850014</v>
       </c>
       <c r="E47" t="n">
-        <v>594.2305927467216</v>
+        <v>570.3443878796834</v>
       </c>
       <c r="F47" t="n">
         <v>5727.399863735794</v>
@@ -1124,7 +1124,7 @@
         <v>438.4772085877264</v>
       </c>
       <c r="E48" t="n">
-        <v>585.3171338555208</v>
+        <v>550.3823343038945</v>
       </c>
       <c r="F48" t="n">
         <v>6062.233298669635</v>
@@ -1144,7 +1144,7 @@
         <v>431.9000504589105</v>
       </c>
       <c r="E49" t="n">
-        <v>576.5373768476881</v>
+        <v>531.1189526032582</v>
       </c>
       <c r="F49" t="n">
         <v>6397.066733603475</v>
@@ -1164,7 +1164,7 @@
         <v>425.4215497020268</v>
       </c>
       <c r="E50" t="n">
-        <v>567.8893161949726</v>
+        <v>512.529789262144</v>
       </c>
       <c r="F50" t="n">
         <v>6731.900168537315</v>
@@ -1184,7 +1184,7 @@
         <v>419.0402264564965</v>
       </c>
       <c r="E51" t="n">
-        <v>559.370976452048</v>
+        <v>494.591246637969</v>
       </c>
       <c r="F51" t="n">
         <v>7385.833901100875</v>
@@ -1204,7 +1204,7 @@
         <v>412.754623059649</v>
       </c>
       <c r="E52" t="n">
-        <v>550.9804118052673</v>
+        <v>477.2805530056401</v>
       </c>
       <c r="F52" t="n">
         <v>7704.934198730594</v>
@@ -1224,7 +1224,7 @@
         <v>406.5633037137543</v>
       </c>
       <c r="E53" t="n">
-        <v>542.7157056281883</v>
+        <v>460.5757336504427</v>
       </c>
       <c r="F53" t="n">
         <v>8024.034496360314</v>
@@ -1244,7 +1244,7 @@
         <v>400.464854158048</v>
       </c>
       <c r="E54" t="n">
-        <v>534.5749700437655</v>
+        <v>444.4555829726772</v>
       </c>
       <c r="F54" t="n">
         <v>5625.470649406536</v>
@@ -1264,7 +1264,7 @@
         <v>394.4578813456772</v>
       </c>
       <c r="E55" t="n">
-        <v>526.556345493109</v>
+        <v>428.8996375686335</v>
       </c>
       <c r="F55" t="n">
         <v>3045.101660271814</v>
@@ -1284,7 +1284,7 @@
         <v>388.541013125492</v>
       </c>
       <c r="E56" t="n">
-        <v>518.6580003107123</v>
+        <v>413.8881502537313</v>
       </c>
       <c r="F56" t="n">
         <v>5451.599311507158</v>
@@ -1304,7 +1304,7 @@
         <v>382.7128979286097</v>
       </c>
       <c r="E57" t="n">
-        <v>510.8781303060517</v>
+        <v>399.4020649948507</v>
       </c>
       <c r="F57" t="n">
         <v>7630.033707462264</v>
@@ -1324,7 +1324,7 @@
         <v>376.9722044596805</v>
       </c>
       <c r="E58" t="n">
-        <v>503.2149583514609</v>
+        <v>385.4229927200309</v>
       </c>
       <c r="F58" t="inlineStr"/>
     </row>
@@ -1342,7 +1342,7 @@
         <v>371.3176213927853</v>
       </c>
       <c r="E59" t="n">
-        <v>495.6667339761889</v>
+        <v>371.9331879748298</v>
       </c>
       <c r="F59" t="inlineStr"/>
     </row>
@@ -1360,7 +1360,7 @@
         <v>365.7478570718935</v>
       </c>
       <c r="E60" t="n">
-        <v>488.2317329665461</v>
+        <v>358.9155263957107</v>
       </c>
       <c r="F60" t="inlineStr"/>
     </row>
@@ -1378,7 +1378,7 @@
         <v>360.2616392158151</v>
       </c>
       <c r="E61" t="n">
-        <v>480.9082569720479</v>
+        <v>346.3534829718609</v>
       </c>
       <c r="F61" t="inlineStr"/>
     </row>
@@ -1396,7 +1396,7 @@
         <v>354.8577146275779</v>
       </c>
       <c r="E62" t="n">
-        <v>473.6946331174672</v>
+        <v>334.2311110678457</v>
       </c>
       <c r="F62" t="inlineStr"/>
     </row>
@@ -1414,7 +1414,7 @@
         <v>349.5348489081642</v>
       </c>
       <c r="E63" t="n">
-        <v>466.5892136207052</v>
+        <v>322.5330221804711</v>
       </c>
       <c r="F63" t="inlineStr"/>
     </row>
@@ -1432,7 +1432,7 @@
         <v>344.2918261745418</v>
       </c>
       <c r="E64" t="n">
-        <v>459.5903754163946</v>
+        <v>311.2443664041546</v>
       </c>
       <c r="F64" t="inlineStr"/>
     </row>
@@ -1450,7 +1450,7 @@
         <v>339.1274487819236</v>
       </c>
       <c r="E65" t="n">
-        <v>452.6965197851487</v>
+        <v>300.3508135800092</v>
       </c>
       <c r="F65" t="inlineStr"/>
     </row>
@@ -1468,7 +1468,7 @@
         <v>334.0405370501948</v>
       </c>
       <c r="E66" t="n">
-        <v>445.9060719883714</v>
+        <v>289.8385351047089</v>
       </c>
       <c r="F66" t="inlineStr"/>
     </row>
@@ -1486,7 +1486,7 @@
         <v>329.0299289944418</v>
       </c>
       <c r="E67" t="n">
-        <v>439.2174809085458</v>
+        <v>279.6941863760441</v>
       </c>
       <c r="F67" t="inlineStr"/>
     </row>
@@ -1504,7 +1504,7 @@
         <v>324.0944800595252</v>
       </c>
       <c r="E68" t="n">
-        <v>432.6292186949177</v>
+        <v>269.9048898528825</v>
       </c>
       <c r="F68" t="inlineStr"/>
     </row>
@@ -1522,7 +1522,7 @@
         <v>319.2330628586323</v>
       </c>
       <c r="E69" t="n">
-        <v>426.1397804144939</v>
+        <v>260.4582187080316</v>
       </c>
       <c r="F69" t="inlineStr"/>
     </row>
@@ -1540,7 +1540,7 @@
         <v>314.4445669157528</v>
       </c>
       <c r="E70" t="n">
-        <v>419.7476837082765</v>
+        <v>251.3421810532505</v>
       </c>
       <c r="F70" t="inlineStr"/>
     </row>
@@ -1558,7 +1558,7 @@
         <v>309.7278984120165</v>
       </c>
       <c r="E71" t="n">
-        <v>413.4514684526524</v>
+        <v>242.5452047163867</v>
       </c>
       <c r="F71" t="inlineStr"/>
     </row>
@@ -1576,7 +1576,7 @@
         <v>305.0819799358363</v>
       </c>
       <c r="E72" t="n">
-        <v>407.2496964258626</v>
+        <v>234.0561225513132</v>
       </c>
       <c r="F72" t="inlineStr"/>
     </row>
@@ -1594,7 +1594,7 @@
         <v>300.5057502367987</v>
       </c>
       <c r="E73" t="n">
-        <v>401.1409509794746</v>
+        <v>225.8641582620172</v>
       </c>
       <c r="F73" t="inlineStr"/>
     </row>
@@ -1612,7 +1612,7 @@
         <v>295.9981639832467</v>
       </c>
       <c r="E74" t="n">
-        <v>395.1238367147824</v>
+        <v>217.9589127228466</v>
       </c>
       <c r="F74" t="inlineStr"/>
     </row>
@@ -1630,7 +1630,7 @@
         <v>291.558191523498</v>
       </c>
       <c r="E75" t="n">
-        <v>389.1969791640607</v>
+        <v>210.3303507775469</v>
       </c>
       <c r="F75" t="inlineStr"/>
     </row>
@@ -1648,7 +1648,7 @@
         <v>287.1848186506456</v>
       </c>
       <c r="E76" t="n">
-        <v>383.3590244765998</v>
+        <v>202.9687885003328</v>
       </c>
       <c r="F76" t="inlineStr"/>
     </row>
@@ -1666,7 +1666,7 @@
         <v>282.8770463708859</v>
       </c>
       <c r="E77" t="n">
-        <v>377.6086391094508</v>
+        <v>195.8648809028211</v>
       </c>
       <c r="F77" t="inlineStr"/>
     </row>
@@ -1684,7 +1684,7 @@
         <v>278.6338906753226</v>
       </c>
       <c r="E78" t="n">
-        <v>371.944509522809</v>
+        <v>189.0096100712224</v>
       </c>
       <c r="F78" t="inlineStr"/>
     </row>
@@ -1702,7 +1702,7 @@
         <v>274.4543823151927</v>
       </c>
       <c r="E79" t="n">
-        <v>366.3653418799669</v>
+        <v>182.3942737187296</v>
       </c>
       <c r="F79" t="inlineStr"/>
     </row>
@@ -1720,7 +1720,7 @@
         <v>270.3375665804649</v>
       </c>
       <c r="E80" t="n">
-        <v>360.8698617517674</v>
+        <v>176.0104741385741</v>
       </c>
       <c r="F80" t="inlineStr"/>
     </row>
@@ -1738,7 +1738,7 @@
         <v>266.2825030817579</v>
       </c>
       <c r="E81" t="n">
-        <v>355.4568138254909</v>
+        <v>169.850107543724</v>
       </c>
       <c r="F81" t="inlineStr"/>
     </row>
@@ -1756,7 +1756,7 @@
         <v>262.2882655355315</v>
       </c>
       <c r="E82" t="n">
-        <v>350.1249616181085</v>
+        <v>163.9053537796936</v>
       </c>
       <c r="F82" t="inlineStr"/>
     </row>
@@ -1774,7 +1774,7 @@
         <v>258.3539415524986</v>
       </c>
       <c r="E83" t="n">
-        <v>344.8730871938369</v>
+        <v>158.1686663974043</v>
       </c>
       <c r="F83" t="inlineStr"/>
     </row>
@@ -1792,7 +1792,7 @@
         <v>254.4786324292111</v>
       </c>
       <c r="E84" t="n">
-        <v>339.6999908859293</v>
+        <v>152.6327630734952</v>
       </c>
       <c r="F84" t="inlineStr"/>
     </row>
